--- a/historical version.xlsx
+++ b/historical version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\唐博\Desktop\CSharp-SerialPort-Helper-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52775\Desktop\master_arbeit\EIS-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388BF901-F5EE-4151-AD14-D4F77E956A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BE9B33-6B1F-4D52-AA09-5222563619F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="2412" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1635" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>version Nr.:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,29 @@
   <si>
     <t>Readme.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.2.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新版本，频域和时域初步编写完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现具体实验参数传输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见Readme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.与STM32数据传输还存在问题2.实验日期输入模式仍需修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version2.0.1Readme.TXT</t>
   </si>
 </sst>
 </file>
@@ -218,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -243,9 +266,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -256,10 +276,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -540,19 +569,19 @@
   <dimension ref="B1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:J16"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,317 +595,329 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="14" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -965,8 +1006,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K4" r:id="rId1" xr:uid="{14BDEF56-04DA-45D2-8D4C-09506AFAC11C}"/>
+    <hyperlink ref="K5" r:id="rId2" xr:uid="{2A18AB35-EFA5-4400-826D-BF7008AA8C48}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/historical version.xlsx
+++ b/historical version.xlsx
@@ -1,118 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52775\Desktop\master_arbeit\EIS-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BE9B33-6B1F-4D52-AA09-5222563619F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1635" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>version Nr.:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本注释</t>
   </si>
   <si>
     <t>新实现的功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>功能修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>未解决Bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Readme.txt</t>
   </si>
   <si>
     <t>v1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最初版本，本质是串口助手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>实现串口通信和16进制传输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.增加了频域和时域功能选项卡              2. 初步设定了UI呈现形式                      3.增加了伯德图和奈奎斯特图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 点击某些时域选项卡时才能显示收到的数据                      2. .......................</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>version1.0.1 Readme.txt</t>
   </si>
   <si>
-    <t>Readme.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v.2.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>更新版本，频域和时域初步编写完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>实现具体实验参数传输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>见Readme</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.与STM32数据传输还存在问题2.实验日期输入模式仍需修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>version2.0.1Readme.TXT</t>
+  </si>
+  <si>
+    <t>v.3.0.1</t>
+  </si>
+  <si>
+    <t>更新版本，频域和时域基本编写完成，DC模块初步编写完成</t>
+  </si>
+  <si>
+    <t>实现具体实验参数传输，日期输入，DC参数输入</t>
+  </si>
+  <si>
+    <t>1.数值取值范围尚未设定2.DC部分参数需根据实际情况修改</t>
+  </si>
+  <si>
+    <t>version3.0.1Readme.TXT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -121,7 +108,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -130,19 +116,356 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -152,7 +475,31 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -160,59 +507,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -221,83 +522,381 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -346,7 +945,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -381,7 +980,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -555,24 +1154,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
@@ -580,13 +1174,13 @@
     <col min="11" max="11" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15"/>
+    <row r="2" ht="18.75" spans="2:11">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -595,353 +1189,367 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="8" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="82.15" customHeight="1" spans="2:11">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="28.5" spans="2:11">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="16" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" ht="28.5" spans="2:11">
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="2:11">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" ht="15" spans="2:11">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H3:J3"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:J5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
@@ -949,8 +1557,8 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
@@ -958,8 +1566,6 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:J12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:J13"/>
@@ -1003,12 +1609,13 @@
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="H26:J26"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{14BDEF56-04DA-45D2-8D4C-09506AFAC11C}"/>
-    <hyperlink ref="K5" r:id="rId2" xr:uid="{2A18AB35-EFA5-4400-826D-BF7008AA8C48}"/>
+    <hyperlink ref="K4" r:id="rId1" display="version1.0.1 Readme.txt"/>
+    <hyperlink ref="K5" r:id="rId2" display="version2.0.1Readme.TXT"/>
+    <hyperlink ref="K6" r:id="rId3" display="version3.0.1Readme.TXT"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/historical version.xlsx
+++ b/historical version.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>version Nr.:</t>
   </si>
@@ -83,6 +83,21 @@
   </si>
   <si>
     <t>version3.0.1Readme.TXT</t>
+  </si>
+  <si>
+    <t>v.4.0.1</t>
+  </si>
+  <si>
+    <t>更新版本，频域，时域，DC和Combination模块基本编写完成，文件系统编写完成</t>
+  </si>
+  <si>
+    <t>实现具体实验参数传输，日期输入，DC参数输入，读写文件，画图，缩放功能等</t>
+  </si>
+  <si>
+    <t>1.放大后Combination的图片显示bug                                         2.多次测量的曲线个数问题</t>
+  </si>
+  <si>
+    <t>version4.0.1Readme.txt</t>
   </si>
 </sst>
 </file>
@@ -91,11 +106,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,29 +151,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,62 +202,64 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,23 +273,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,49 +288,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,133 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,17 +568,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,26 +582,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,26 +601,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,153 +641,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -819,6 +827,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -838,6 +849,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1163,7 +1177,7 @@
   <dimension ref="B1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1189,7 +1203,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="9"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="4"/>
@@ -1207,7 +1221,7 @@
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1226,12 +1240,12 @@
         <v>9</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="11" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1250,12 +1264,12 @@
         <v>15</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="12" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1274,26 +1288,38 @@
         <v>15</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="13" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+    <row r="7" ht="42.75" spans="2:11">
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="10"/>
+      <c r="H7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="4"/>
@@ -1305,7 +1331,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="10"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="4"/>
@@ -1317,7 +1343,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="10"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="4"/>
@@ -1329,7 +1355,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="10"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="4"/>
@@ -1341,7 +1367,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="10"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="4"/>
@@ -1353,7 +1379,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="4"/>
@@ -1365,7 +1391,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="4"/>
@@ -1377,7 +1403,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="10"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="4"/>
@@ -1389,7 +1415,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="10"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="4"/>
@@ -1401,7 +1427,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="10"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="4"/>
@@ -1413,7 +1439,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="10"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="4"/>
@@ -1425,7 +1451,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="10"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="4"/>
@@ -1437,7 +1463,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="10"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="4"/>
@@ -1449,7 +1475,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="10"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="4"/>
@@ -1461,7 +1487,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="10"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="4"/>
@@ -1473,7 +1499,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="10"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="4"/>
@@ -1485,7 +1511,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="10"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="4"/>
@@ -1497,7 +1523,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="10"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="4"/>
@@ -1509,30 +1535,30 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="10"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" ht="15" spans="2:11">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="14"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="16"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="72">
@@ -1613,6 +1639,7 @@
     <hyperlink ref="K4" r:id="rId1" display="version1.0.1 Readme.txt"/>
     <hyperlink ref="K5" r:id="rId2" display="version2.0.1Readme.TXT"/>
     <hyperlink ref="K6" r:id="rId3" display="version3.0.1Readme.TXT"/>
+    <hyperlink ref="K7" r:id="rId4" display="version4.0.1Readme.txt"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
